--- a/project3_cs475/project3.xlsx
+++ b/project3_cs475/project3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="480" windowWidth="16820" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="10580" yWindow="460" windowWidth="16820" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -109,11 +115,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,6 +136,3885 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Num Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1 - Padding (X axis),Time (Y axis)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>13.5631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.8215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.3017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.4886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.7073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.3254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.9329</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.651</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-452336224"/>
+        <c:axId val="-518757616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-452336224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-518757616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-518757616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-452336224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Num Threads 2 -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Padding (X axis), Time (Y axis)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12.0895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.92241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.50226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.21949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.57356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.63194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.92416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.01967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.37313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.53171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.21495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.03251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.98915</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.74949</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.02342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-451911232"/>
+        <c:axId val="-447827088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-451911232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-447827088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-447827088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-451911232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Num Threads 4 -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Padding (X axis), Time (Y axis)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.24819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.67386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.85033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.16012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.71257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.60086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.13795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.28258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.76877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.67797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.36726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.40209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-483379856"/>
+        <c:axId val="-447862080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-483379856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-447862080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-447862080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-483379856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fix 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Num Threads (X axis) Time (Y axis)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.95983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.1245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-445252192"/>
+        <c:axId val="-480822624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-445252192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-480822624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-480822624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-445252192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +4283,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,5 +4876,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>